--- a/data/income_statement/3digits/total/252_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/252_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>252-Manufacture of tanks, reservoirs and containers of metal</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>252-Manufacture of tanks, reservoirs and containers of metal</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>3041830.19552</v>
@@ -965,28 +871,33 @@
         <v>5722829.58492</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>6961254.6381</v>
+        <v>7007939.839349999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7391019.291290001</v>
+        <v>7513269.327450001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>8434346.032829998</v>
+        <v>8478524.51042</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>11417826.36206</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>15343835.06979</v>
+        <v>15344264.11889</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>16985870.02653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>17021909.91493</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>21871073.503</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1942946.57728</v>
@@ -1001,31 +912,36 @@
         <v>3580663.31916</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3831469.96877</v>
+        <v>3831469.968770001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4766283.71936</v>
+        <v>4800368.807569999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5039086.44567</v>
+        <v>5147282.264030001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5790170.485950001</v>
+        <v>5803848.937109999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7897105.03964</v>
+        <v>7897105.039639999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>9880266.324690001</v>
+        <v>9880695.373790001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10805002.58479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10770120.14493</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>13836625.625</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1063560.22937</v>
@@ -1043,13 +959,13 @@
         <v>1840684.25767</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2136305.00148</v>
+        <v>2148494.14975</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2263295.04334</v>
+        <v>2276313.21218</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2545199.457769999</v>
+        <v>2575574.58981</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>3402431.86504</v>
@@ -1058,13 +974,18 @@
         <v>5281639.39656</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>6025992.905580001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6096309.57099</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>7824201.427</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>35323.38887</v>
@@ -1082,13 +1003,13 @@
         <v>50675.35848</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>58665.91726</v>
+        <v>59076.88203</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>88637.80228</v>
+        <v>89673.85124</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>98976.08911</v>
+        <v>99100.9835</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>118289.45738</v>
@@ -1097,13 +1018,18 @@
         <v>181929.34854</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>154874.53616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>155480.19901</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>210246.451</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>108434.57649</v>
@@ -1121,13 +1047,13 @@
         <v>303310.8803</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>635788.28608</v>
+        <v>635936.54922</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>564588.5969499999</v>
+        <v>568942.14538</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>668123.05725</v>
+        <v>668528.01857</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>915994.9125900001</v>
@@ -1136,16 +1062,21 @@
         <v>1239623.82213</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1414494.60578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1414504.6222</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1287119.625</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>42336.29083999999</v>
+        <v>42336.29084</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>25995.24515</v>
@@ -1160,28 +1091,33 @@
         <v>34983.36813</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>41257.39926999999</v>
+        <v>41385.88415999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>41323.04407</v>
+        <v>41852.59356</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>69211.45479999999</v>
+        <v>69616.41612000001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>63732.0837</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>74170.93457000001</v>
+        <v>74170.93457</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>87396.70543999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>87406.72186000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>172386.333</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>61272.54033</v>
@@ -1199,16 +1135,16 @@
         <v>259089.87376</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>583703.9643700002</v>
+        <v>583723.7426200002</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>508885.8477</v>
+        <v>512371.19036</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>587721.3978200001</v>
+        <v>587721.39782</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>832054.51809</v>
+        <v>832054.5180899999</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>1119377.24185</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>1289136.1227</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>1068756.77</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>4825.74532</v>
@@ -1232,7 +1173,7 @@
         <v>8283.284019999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>7426.0013</v>
+        <v>7426.001300000001</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>9237.63841</v>
@@ -1241,7 +1182,7 @@
         <v>10826.92244</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>14379.70518</v>
+        <v>14718.36146</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>11190.20463</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>37961.77764</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>45976.522</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2933395.61903</v>
@@ -1277,28 +1223,33 @@
         <v>5419518.70462</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6325466.35202</v>
+        <v>6372003.290130001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6826430.69434</v>
+        <v>6944327.18207</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7766222.97558</v>
+        <v>7809996.491850001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>10501831.44947</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>14104211.24766</v>
+        <v>14104640.29676</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>15571375.42075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15607405.29273</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>20583953.878</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2328620.7031</v>
@@ -1307,37 +1258,42 @@
         <v>2696936.28198</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3837395.734</v>
+        <v>3837395.734000001</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>4099572.90455</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4361939.984870001</v>
+        <v>4361939.98487</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5122992.534179999</v>
+        <v>5162360.709620001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5446942.82418</v>
+        <v>5534904.37448</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6159046.14837</v>
+        <v>6203010.942020001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>8470273.313999999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11133702.76256</v>
+        <v>11134106.16926</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>12371174.14214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12401666.65075</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>15841259.584</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1762684.92553</v>
@@ -1352,34 +1308,39 @@
         <v>3251653.45939</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3473618.687820001</v>
+        <v>3473618.68782</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4078303.65954</v>
+        <v>4090826.93039</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4402510.25968</v>
+        <v>4483564.892689999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4866292.466510001</v>
+        <v>4905970.264020001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>6769489.893569999</v>
+        <v>6769489.893570001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>9133709.602360001</v>
+        <v>9134027.891899999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>10252035.48737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10256145.33277</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>13258080.605</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>371345.0811299999</v>
+        <v>371345.08113</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>379846.05911</v>
@@ -1394,28 +1355,33 @@
         <v>562978.03227</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>755373.4123099999</v>
+        <v>769152.3023999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>756971.48644</v>
+        <v>763577.4823100001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>860540.50503</v>
+        <v>860743.46574</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1260628.35202</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1455094.54525</v>
+        <v>1455179.66241</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1617313.93784</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1643954.12312</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1978431.037</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>136481.15191</v>
@@ -1427,34 +1393,39 @@
         <v>212595.57667</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>279823.9822399999</v>
+        <v>279823.98224</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>285813.35852</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>254261.96262</v>
+        <v>267327.97712</v>
       </c>
       <c r="I17" s="48" t="n">
         <v>247454.79349</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>383643.72875</v>
+        <v>387727.7641799999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>372972.96227</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>409073.3205800001</v>
+        <v>409073.32058</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>404458.35521</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>404200.83314</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>482356.135</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>58109.54453</v>
@@ -1475,7 +1446,7 @@
         <v>35053.49971</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>40006.28457</v>
+        <v>40307.20599</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>48569.44807999999</v>
@@ -1489,50 +1460,60 @@
       <c r="M18" s="48" t="n">
         <v>97366.36172</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>122391.807</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>604774.9159299999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>557957.8716</v>
+        <v>557957.8716000001</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>798216.4428</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>869873.2476700001</v>
+        <v>869873.24767</v>
       </c>
       <c r="G19" s="47" t="n">
         <v>1057578.71975</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1202473.81784</v>
+        <v>1209642.58051</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1379487.87016</v>
+        <v>1409422.80759</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1607176.82721</v>
+        <v>1606985.54983</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2031558.13547</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2970508.4851</v>
+        <v>2970534.1275</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3200201.27861</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3205738.64198</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4742694.294</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>343136.88345</v>
@@ -1550,28 +1531,33 @@
         <v>591995.7836</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>695288.8559300001</v>
+        <v>700116.2408900001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>765745.8528299999</v>
+        <v>788358.2703099999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>863892.57372</v>
+        <v>875328.22023</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1031505.8901</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1419606.22358</v>
+        <v>1419963.72216</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1603400.63259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1608599.49046</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1919816.023</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>13676.79842</v>
@@ -1586,7 +1572,7 @@
         <v>13582.53173</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>20303.99197000001</v>
+        <v>20303.99197</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>21272.20409</v>
@@ -1604,13 +1590,18 @@
         <v>41960.83875</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>68216.72868</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>68216.72867999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>57167.56</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>173330.45774</v>
@@ -1628,13 +1619,13 @@
         <v>313358.10957</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>380241.47594</v>
+        <v>381000.04734</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>422819.08302</v>
+        <v>425689.22781</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>470482.4014500001</v>
+        <v>472361.42364</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>568468.82101</v>
@@ -1643,13 +1634,18 @@
         <v>824770.84525</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>936575.31329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>938231.92112</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1153959.078</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>156129.62729</v>
@@ -1667,28 +1663,33 @@
         <v>258333.68206</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>293775.1759</v>
+        <v>297843.98946</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>312697.74661</v>
+        <v>332440.0193</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>357181.69379</v>
+        <v>366738.31811</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>426769.22371</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>552874.5395800001</v>
+        <v>553232.03816</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>598608.59062</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>602150.84066</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>708689.385</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>261638.03248</v>
@@ -1706,28 +1707,33 @@
         <v>465582.93615</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>507184.96191</v>
+        <v>509526.33962</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>613742.0173299999</v>
+        <v>621064.5372799999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>743284.25349</v>
+        <v>731657.3296000001</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1000052.24537</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1550902.26152</v>
+        <v>1550570.40534</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1596800.64602</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1597139.15152</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2822878.271</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>142829.26029</v>
@@ -1745,28 +1751,33 @@
         <v>237417.63614</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>278362.77068</v>
+        <v>279236.64366</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>386310.94181</v>
+        <v>387610.73</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>586067.6103399999</v>
+        <v>605908.76003</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>616260.46164</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1514475.80864</v>
+        <v>1514482.51569</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>770591.61044</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>770963.30472</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1446616.021</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>75.90085000000001</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>718.7994</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>250.884</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0.10144</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>2316.28581</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>8242.922</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>12504.29343</v>
@@ -1862,13 +1883,13 @@
         <v>10759.02919</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>12782.74359</v>
+        <v>13167.45695</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>17850.58567</v>
+        <v>17897.912</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>24049.33214</v>
+        <v>24138.75084</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>34717.54246</v>
@@ -1877,13 +1898,18 @@
         <v>76656.22459</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>62714.64749</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>62997.64641</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>89836.114</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>190.50943</v>
@@ -1901,7 +1927,7 @@
         <v>250.08453</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>69.11583999999999</v>
+        <v>72.22942999999999</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>1624.36215</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1813.11607</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>718.117</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>7018.89865</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>8613.802710000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>29796.684</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>282.40678</v>
@@ -1979,13 +2015,13 @@
         <v>11298.58335</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>785.5024800000001</v>
+        <v>790.30346</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>490.3730400000001</v>
+        <v>490.37304</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>112602.52409</v>
+        <v>112629.99796</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>69.59989999999999</v>
@@ -1994,13 +2030,18 @@
         <v>2754.57838</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>280.7878000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>280.7878</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>8067.966</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>62154.9068</v>
@@ -2018,28 +2059,33 @@
         <v>142425.38992</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>195063.31063</v>
+        <v>195493.69979</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>279342.77768</v>
+        <v>280563.72821</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>254218.04848</v>
+        <v>273517.93219</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>487730.20962</v>
+        <v>487730.2096199999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1305548.64113</v>
+        <v>1305555.53641</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>577146.0841</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>577228.85335</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1236373.929</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>10523.24966</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>9980.193960000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>3531.202</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.39815</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>105.947</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>50078.59509999999</v>
@@ -2135,28 +2191,33 @@
         <v>42981.97583</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>44527.07858</v>
+        <v>44577.93447</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>45697.87218</v>
+        <v>45729.38351</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>46879.16561999999</v>
+        <v>47303.53903</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>75328.71915999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>81577.16389000001</v>
+        <v>81576.97566</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>107007.8931</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>107013.81921</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>69692.25599999999</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>99065.5292</v>
@@ -2174,28 +2235,33 @@
         <v>198612.49021</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>274365.34921</v>
+        <v>275366.04291</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>309590.43543</v>
+        <v>312273.29821</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>297809.97859</v>
+        <v>325403.8964</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>517061.51762</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1472034.24065</v>
+        <v>1472046.08226</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>634536.10336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>634649.8178800001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1262162.374</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>746.35226</v>
@@ -2204,7 +2270,7 @@
         <v>385.5499</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>830.39496</v>
+        <v>830.3949599999999</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>1560.03245</v>
@@ -2213,28 +2279,33 @@
         <v>1938.65948</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1874.15281</v>
+        <v>1934.09521</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>2257.85415</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1979.99105</v>
+        <v>1981.47474</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2966.510560000001</v>
+        <v>2966.51056</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>4862.66695</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5393.823399999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5394.47344</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>7295.841</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>19912.05703</v>
@@ -2252,13 +2323,13 @@
         <v>20786.13158</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>46297.51961000001</v>
+        <v>46297.51961</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>33079.25666</v>
+        <v>33415.86633</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>46978.90113000001</v>
+        <v>52172.51263</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>30641.70481</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>66133.59832</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>63267.727</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>47.11060000000001</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>51.90199</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>3669.469</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>62067.51035999999</v>
+        <v>62067.51036</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>64419.16305</v>
@@ -2330,28 +2411,33 @@
         <v>160445.8732</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>209339.36432</v>
+        <v>210280.11562</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>260071.58482</v>
+        <v>262395.28012</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>232915.77263</v>
+        <v>255293.98761</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>473360.32104</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1403794.74872</v>
+        <v>1403806.59033</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>546671.6730900001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>546783.83946</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1155431.735</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>10530.68035</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>3622.98451</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>4847.243</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>6.520320000000001</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>2e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>5755.298279999999</v>
@@ -2447,13 +2543,13 @@
         <v>8847.52008</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>9763.760670000001</v>
+        <v>9763.76067</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>6569.938300000001</v>
+        <v>6592.49611</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>8302.41966</v>
+        <v>8323.027300000002</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>5312.07021</v>
@@ -2462,91 +2558,106 @@
         <v>15064.46327</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>12662.12203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>12663.02014</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>27650.359</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>117804.42906</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>64907.97905</v>
+        <v>64907.97904999999</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>114770.367</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>95609.86691</v>
+        <v>95609.86691000001</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>117549.00965</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>103123.14515</v>
+        <v>104428.56597</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>130193.51713</v>
+        <v>137376.53416</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>145868.94623</v>
+        <v>148342.92068</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>181708.23766</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>333770.481</v>
+        <v>333773.96874</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>284956.8368400001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>284965.3990499999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>279081.862</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>111845.79433</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>55601.84833000001</v>
+        <v>55601.84833</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>99224.66740000001</v>
+        <v>99224.66739999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>89905.98036999999</v>
+        <v>89905.98037</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>107721.28179</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>101114.30056</v>
+        <v>102419.72138</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>123164.75817</v>
+        <v>129378.98551</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>127263.17235</v>
+        <v>129737.1468</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>160265.74464</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>294145.7215800001</v>
+        <v>294149.20932</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>276565.36622</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>276573.92843</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>266858.906</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>5958.634730000001</v>
@@ -2567,13 +2678,13 @@
         <v>2008.84459</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>7028.758959999999</v>
+        <v>7997.548650000001</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>18605.77388</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>21442.49301999999</v>
+        <v>21442.49302</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>39624.75942</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>8391.47062</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>12222.956</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>187597.33451</v>
@@ -2597,34 +2713,39 @@
         <v>267499.65502</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>388947.6895100001</v>
+        <v>388947.68951</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>386839.07243</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>408059.23823</v>
+        <v>408968.3744</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>560269.00658</v>
+        <v>559025.4349100001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>885672.93901</v>
+        <v>863819.27255</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>917542.9517299999</v>
+        <v>917542.95173</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1259573.34851</v>
+        <v>1259232.87003</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1447899.31626</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1448487.23931</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2728250.056</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>12348.09125</v>
@@ -2642,31 +2763,36 @@
         <v>25479.01553</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>31618.13542999999</v>
+        <v>33226.19119</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>28322.00609</v>
+        <v>28619.24392</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>82299.22477</v>
+        <v>87752.75529999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>94040.71696999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>76841.38592</v>
+        <v>76843.85743999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>123551.66825</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>123132.39233</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>79159.766</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>674.1042199999998</v>
+        <v>674.1042199999999</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>251.42413</v>
@@ -2675,34 +2801,39 @@
         <v>1081.63879</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>810.9413099999999</v>
+        <v>810.94131</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>746.55503</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1296.66107</v>
+        <v>1296.66447</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>1381.66586</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>722.4799400000002</v>
+        <v>747.7598500000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>785.9111300000001</v>
+        <v>785.91113</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>24048.57687</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2467.63828</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2045.8388</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5218.004</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>11673.98703</v>
@@ -2720,28 +2851,33 @@
         <v>24732.4605</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>30321.47436</v>
+        <v>31929.52672</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>26940.34023</v>
+        <v>27237.57806</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>81576.74483</v>
+        <v>87004.99545</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>93254.80583999999</v>
+        <v>93254.80584</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>52792.80905</v>
+        <v>52795.28057</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>121084.02997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>121086.55353</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>73941.762</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>21104.12478</v>
@@ -2759,31 +2895,36 @@
         <v>24640.8927</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>45052.46469</v>
+        <v>49262.56997</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>24044.62593</v>
+        <v>25792.99301</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>84665.20552000002</v>
+        <v>88222.58956000001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>35766.02015</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>102580.82083</v>
+        <v>102673.99237</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>131736.41638</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>132376.24791</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>84860.25900000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4807.4481</v>
+        <v>4807.448100000001</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>3458.27257</v>
@@ -2801,10 +2942,10 @@
         <v>2423.54684</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2505.02941</v>
+        <v>3890.82345</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>5102.759720000001</v>
+        <v>5102.75972</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>8320.07087</v>
@@ -2813,13 +2954,18 @@
         <v>13728.38887</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>24966.37803</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>25176.2975</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>8483.587</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2051.86546</v>
@@ -2837,13 +2983,13 @@
         <v>1926.326</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1221.64995</v>
+        <v>1279.20107</v>
       </c>
       <c r="I53" s="48" t="n">
         <v>1892.08355</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2600.80117</v>
+        <v>2843.42398</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2113.44224</v>
@@ -2852,13 +2998,18 @@
         <v>19652.52991</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1821.44987</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2243.249350000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6335.87</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>14244.81122</v>
@@ -2876,28 +3027,33 @@
         <v>17950.19195</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>41407.2679</v>
+        <v>45559.82205999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>19647.51297</v>
+        <v>20010.08601</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>76961.64463</v>
+        <v>80276.40586</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>25332.50704</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>69199.90205000002</v>
+        <v>69293.07359</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>104948.58848</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>104956.70106</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>70040.802</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>178841.30098</v>
@@ -2906,43 +3062,48 @@
         <v>188845.87972</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>208692.4064900001</v>
+        <v>208692.40649</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>378096.75531</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>387677.19526</v>
+        <v>387677.1952600001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>394624.90897</v>
+        <v>392931.99562</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>564546.38674</v>
+        <v>561851.68582</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>883306.9582600001</v>
+        <v>863349.43829</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>975817.6485499999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1233833.9136</v>
+        <v>1233402.7351</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1439714.56813</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1439243.38373</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2722549.563</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>35631.42634000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>37362.24305999999</v>
+        <v>37362.24306</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>56193.48116</v>
@@ -2951,31 +3112,36 @@
         <v>62885.92326</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>81993.8164</v>
+        <v>81993.81640000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>73008.00737000001</v>
+        <v>73423.88105</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>104580.06143</v>
+        <v>105099.21727</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>120111.78801</v>
+        <v>120152.17396</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>154073.30215</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>232644.04066</v>
+        <v>232644.3002</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>231318.32298</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>231777.94623</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>461983.261</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>143209.87464</v>
@@ -2990,28 +3156,31 @@
         <v>315210.83205</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>305683.3788599999</v>
+        <v>305683.37886</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>321616.9016</v>
+        <v>319508.11457</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>459966.32531</v>
+        <v>456752.46855</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>763195.17025</v>
+        <v>743197.26433</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>821744.3463999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1001189.87294</v>
+        <v>1000758.4349</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1208396.24515</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1207465.4375</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2260566.302</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>518</v>
@@ -3047,25 +3219,28 @@
         <v>531</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>560</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>602</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>